--- a/biology/Zoologie/Aspidoscelis_tigris/Aspidoscelis_tigris.xlsx
+++ b/biology/Zoologie/Aspidoscelis_tigris/Aspidoscelis_tigris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis tigris est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis tigris est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis ;
 dans le Nord-Ouest du Mexique.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2014) :
 Aspidoscelis tigris aethiops (Cope, 1900)
 Aspidoscelis tigris dickersonae (Van Denburgh &amp; Slevin, 1921)
 Aspidoscelis tigris disparilis (Dickerson, 1919)
@@ -589,7 +605,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Characteristics of some new reptiles in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 68-70 (texte intégral).
 Burger, 1950 : New, revived, and reallocated names for North American whiptailed lizards, Genus Cnemidophorus. Natural History Miscellanea, Chicago Academy of Sciences, vol. 65, p. 1-9.
